--- a/test_data/wrong_max_projects.xlsx
+++ b/test_data/wrong_max_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hertieschool-my.sharepoint.com/personal/234533_students_hertie-school_org/Documents/MDS/DSA/student-project-matching/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC21674-14E1-6340-9FA4-94F6C2E5E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{6EC21674-14E1-6340-9FA4-94F6C2E5E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E01F117-A4C6-0743-9CA5-E7A0FA6A2073}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{167CAB08-E6E9-D544-8315-BD75E8338A04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>project_name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>s7</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -506,8 +509,8 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -530,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>

--- a/test_data/wrong_max_projects.xlsx
+++ b/test_data/wrong_max_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hertieschool-my.sharepoint.com/personal/234533_students_hertie-school_org/Documents/MDS/DSA/student-project-matching/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{6EC21674-14E1-6340-9FA4-94F6C2E5E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E01F117-A4C6-0743-9CA5-E7A0FA6A2073}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{6EC21674-14E1-6340-9FA4-94F6C2E5E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31B1D10-83A2-B84C-83CE-F87143299C7B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{167CAB08-E6E9-D544-8315-BD75E8338A04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>project_name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>s3</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,7 +493,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
